--- a/v1.0.0/StructureDefinition-VRM-CauseOfDeathCodingMessage.xlsx
+++ b/v1.0.0/StructureDefinition-VRM-CauseOfDeathCodingMessage.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.1</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-28T11:01:10-05:00</t>
+    <t>2023-12-28T12:14:20-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
